--- a/analyses/uwpr-dec2018/unipept-lca/378-peaks80-dno-nomods-lca.xlsx
+++ b/analyses/uwpr-dec2018/unipept-lca/378-peaks80-dno-nomods-lca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-dec2018/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0FE9F0CC-4909-AD47-84B1-A037F0465779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD3DCC-398E-1649-AA03-9176C6E43DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2100" windowWidth="26840" windowHeight="15940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="378-peaks80-dno-nomods-lca" sheetId="1" r:id="rId1"/>
@@ -7719,7 +7719,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8553,12 +8553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8667,7 +8666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>199</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>210</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>220</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>230</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>235</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>262</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>277</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>284</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>294</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -9803,7 +9802,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>309</v>
       </c>
@@ -9840,7 +9839,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>315</v>
       </c>
@@ -9871,7 +9870,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>320</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>325</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>330</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>335</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>338</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>343</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>348</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>357</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>362</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>364</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>374</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>382</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>387</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>389</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>394</v>
       </c>
@@ -10231,7 +10230,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>397</v>
       </c>
@@ -10251,7 +10250,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -10271,7 +10270,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>407</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>411</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>415</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>420</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>425</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>430</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>439</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>444</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>449</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>450</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>455</v>
       </c>
@@ -10499,7 +10498,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>460</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>465</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>470</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>475</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>479</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>483</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>488</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>491</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>494</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>503</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>508</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>512</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>516</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>520</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>525</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>530</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>532</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>537</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>542</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>547</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>550</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>554</v>
       </c>
@@ -10968,7 +10967,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>559</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>562</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>567</v>
       </c>
@@ -11028,7 +11027,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>572</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>575</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>583</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>588</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>592</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>596</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>601</v>
       </c>
@@ -11174,7 +11173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>602</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>607</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>612</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>617</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>622</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>629</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>634</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>639</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>644</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>649</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>657</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>662</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>666</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>671</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>676</v>
       </c>
@@ -11528,7 +11527,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>681</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>686</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>691</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>694</v>
       </c>
@@ -11608,7 +11607,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>699</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>701</v>
       </c>
@@ -11645,7 +11644,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>706</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>710</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>715</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>716</v>
       </c>
@@ -11725,7 +11724,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>721</v>
       </c>
@@ -11745,7 +11744,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>726</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>734</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>738</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>741</v>
       </c>
@@ -11846,7 +11845,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>746</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>750</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>753</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>754</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>764</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>772</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>776</v>
       </c>
@@ -12006,7 +12005,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>781</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>782</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>786</v>
       </c>
@@ -12066,7 +12065,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>791</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>794</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>799</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>803</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>808</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>813</v>
       </c>
@@ -12180,7 +12179,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>818</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>822</v>
       </c>
@@ -12223,7 +12222,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>826</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>830</v>
       </c>
@@ -12257,7 +12256,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>832</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>837</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>842</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>847</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>851</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>855</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>860</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>867</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>870</v>
       </c>
@@ -12440,7 +12439,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>873</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>875</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>880</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>885</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>890</v>
       </c>
@@ -12555,7 +12554,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>898</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>903</v>
       </c>
@@ -12595,7 +12594,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>908</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>910</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>913</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>917</v>
       </c>
@@ -12666,7 +12665,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>922</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>927</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>931</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>936</v>
       </c>
@@ -12746,7 +12745,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>941</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>946</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>950</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>954</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>958</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>963</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>968</v>
       </c>
@@ -12910,7 +12909,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>978</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>983</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>988</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>993</v>
       </c>
@@ -12987,7 +12986,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>995</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>997</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1003</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1008</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1013</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1018</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1023</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1028</v>
       </c>
@@ -13159,7 +13158,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1038</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1041</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1045</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1047</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1055</v>
       </c>
@@ -13268,7 +13267,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1059</v>
       </c>
@@ -13288,7 +13287,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1064</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1069</v>
       </c>
@@ -13325,7 +13324,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1073</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1075</v>
       </c>
@@ -13362,7 +13361,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1079</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1085</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1091</v>
       </c>
@@ -13452,7 +13451,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1096</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1101</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1106</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1111</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1115</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1119</v>
       </c>
@@ -13569,7 +13568,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1124</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1129</v>
       </c>
@@ -13606,7 +13605,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1132</v>
       </c>
@@ -13623,7 +13622,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1136</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1141</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1152</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1157</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1161</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1166</v>
       </c>
@@ -13773,7 +13772,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1171</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1175</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1179</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1184</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1189</v>
       </c>
@@ -13903,7 +13902,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1197</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1202</v>
       </c>
@@ -13943,7 +13942,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1207</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1210</v>
       </c>
@@ -13998,7 +13997,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1215</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1217</v>
       </c>
@@ -14026,7 +14025,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1220</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="257" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1225</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="258" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1230</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="259" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1232</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="260" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1240</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="261" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1244</v>
       </c>
@@ -14161,7 +14160,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="262" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1249</v>
       </c>
@@ -14202,7 +14201,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="263" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1252</v>
       </c>
@@ -14255,7 +14254,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="264" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1264</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="265" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1270</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="266" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1278</v>
       </c>
@@ -14351,7 +14350,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="267" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1282</v>
       </c>
@@ -14359,7 +14358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1283</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="269" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1293</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="270" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1298</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="271" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1303</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="272" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1308</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1313</v>
       </c>
@@ -14509,7 +14508,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1318</v>
       </c>
@@ -14529,7 +14528,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1323</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1328</v>
       </c>
@@ -14569,7 +14568,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1333</v>
       </c>
@@ -14589,7 +14588,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1334</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1340</v>
       </c>
@@ -14647,7 +14646,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1344</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1346</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1350</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1354</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1358</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1363</v>
       </c>
@@ -14755,7 +14754,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1368</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1372</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1373</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1378</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1383</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1388</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1391</v>
       </c>
@@ -14898,7 +14897,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1396</v>
       </c>
@@ -14918,7 +14917,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1400</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1406</v>
       </c>
@@ -14991,7 +14990,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1411</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1412</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1417</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1424</v>
       </c>
@@ -15089,7 +15088,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1428</v>
       </c>
@@ -15109,7 +15108,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1433</v>
       </c>
@@ -15129,7 +15128,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1436</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1441</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1446</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1448</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1453</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1458</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1463</v>
       </c>
@@ -15263,7 +15262,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1468</v>
       </c>
@@ -15289,7 +15288,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1471</v>
       </c>
@@ -15306,7 +15305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1473</v>
       </c>
@@ -15326,7 +15325,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1478</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1483</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1487</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1490</v>
       </c>
@@ -15397,7 +15396,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1495</v>
       </c>
@@ -15411,7 +15410,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1497</v>
       </c>
@@ -15425,7 +15424,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1500</v>
       </c>
@@ -15445,7 +15444,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1505</v>
       </c>
@@ -15465,7 +15464,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1510</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="321" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1514</v>
       </c>
@@ -15505,7 +15504,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="322" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1519</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="323" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1523</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="324" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1528</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="325" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1531</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="326" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1536</v>
       </c>
@@ -15602,7 +15601,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="327" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1541</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="328" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1546</v>
       </c>
@@ -15642,7 +15641,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="329" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1550</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="330" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1555</v>
       </c>
@@ -15682,7 +15681,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="331" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1560</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="332" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1565</v>
       </c>
@@ -15728,7 +15727,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="333" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1569</v>
       </c>
@@ -15766,7 +15765,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="334" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1576</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="335" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1577</v>
       </c>
@@ -15797,7 +15796,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="336" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1582</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1587</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1592</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1594</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1599</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1602</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1606</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1609</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1614</v>
       </c>
@@ -15971,7 +15970,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1618</v>
       </c>
@@ -15991,7 +15990,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1623</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1628</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1633</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1637</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1640</v>
       </c>
@@ -16118,7 +16117,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1647</v>
       </c>
@@ -16138,7 +16137,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1652</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1657</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1662</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1667</v>
       </c>
@@ -16218,7 +16217,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1672</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1676</v>
       </c>
@@ -16258,7 +16257,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1681</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1686</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1691</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1696</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1701</v>
       </c>
@@ -16370,7 +16369,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="363" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1706</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1709</v>
       </c>
@@ -16395,7 +16394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1710</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1715</v>
       </c>
@@ -16435,7 +16434,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1720</v>
       </c>
@@ -16455,7 +16454,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1725</v>
       </c>
@@ -16478,7 +16477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1728</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1733</v>
       </c>
@@ -16518,7 +16517,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1738</v>
       </c>
@@ -16538,7 +16537,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1740</v>
       </c>
@@ -16555,7 +16554,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1743</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1749</v>
       </c>
@@ -16601,7 +16600,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1753</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1762</v>
       </c>
@@ -16656,7 +16655,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1767</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1773</v>
       </c>
@@ -16708,7 +16707,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1778</v>
       </c>
@@ -16722,7 +16721,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1780</v>
       </c>
@@ -16742,7 +16741,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1784</v>
       </c>
@@ -16759,7 +16758,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1787</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1792</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1794</v>
       </c>
@@ -16810,7 +16809,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1799</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1803</v>
       </c>
@@ -16847,7 +16846,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1808</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1812</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1825</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1829</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1834</v>
       </c>
@@ -16977,7 +16976,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="392" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1839</v>
       </c>
@@ -17006,7 +17005,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1846</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1849</v>
       </c>
@@ -17067,7 +17066,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1855</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1857</v>
       </c>
@@ -17098,7 +17097,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1862</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1867</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1872</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1878</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1883</v>
       </c>
@@ -17210,7 +17209,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1888</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1893</v>
       </c>
@@ -17250,7 +17249,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1898</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1901</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1906</v>
       </c>
@@ -17304,7 +17303,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="407" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1911</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1915</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1920</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1925</v>
       </c>
@@ -17378,7 +17377,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1927</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1932</v>
       </c>
@@ -17436,7 +17435,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1939</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1944</v>
       </c>
@@ -17476,7 +17475,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1949</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1953</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1958</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1963</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1965</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1970</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1975</v>
       </c>
@@ -17613,7 +17612,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1979</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1984</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1989</v>
       </c>
@@ -17670,7 +17669,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1991</v>
       </c>
@@ -17705,7 +17704,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1995</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1997</v>
       </c>
@@ -17763,7 +17762,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2004</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="429" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>2009</v>
       </c>
@@ -17803,7 +17802,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2014</v>
       </c>
@@ -17820,7 +17819,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2015</v>
       </c>
@@ -17846,7 +17845,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2019</v>
       </c>
@@ -17866,7 +17865,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2024</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2029</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2031</v>
       </c>
@@ -17920,7 +17919,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2036</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2039</v>
       </c>
@@ -17951,7 +17950,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2042</v>
       </c>
@@ -17971,7 +17970,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2047</v>
       </c>
@@ -17991,7 +17990,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2052</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2057</v>
       </c>
@@ -18031,7 +18030,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2062</v>
       </c>
@@ -18051,7 +18050,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2067</v>
       </c>
@@ -18071,7 +18070,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2072</v>
       </c>
@@ -18091,7 +18090,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2077</v>
       </c>
@@ -18108,7 +18107,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2080</v>
       </c>
@@ -18125,7 +18124,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2083</v>
       </c>
@@ -18145,7 +18144,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2088</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="449" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2093</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="450" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2096</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="451" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2101</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="452" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2103</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="453" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2110</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="454" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2116</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="455" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2121</v>
       </c>
@@ -18374,7 +18373,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="456" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2130</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="457" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2135</v>
       </c>
@@ -18411,7 +18410,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="458" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2137</v>
       </c>
@@ -18428,7 +18427,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="459" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2141</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="460" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2146</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="461" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2149</v>
       </c>
@@ -18503,7 +18502,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="462" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2155</v>
       </c>
@@ -18523,7 +18522,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="463" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2160</v>
       </c>
@@ -18543,7 +18542,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="464" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2165</v>
       </c>
@@ -18554,7 +18553,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2167</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2171</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2177</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2182</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2187</v>
       </c>
@@ -18681,7 +18680,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2192</v>
       </c>
@@ -18695,7 +18694,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2194</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2198</v>
       </c>
@@ -18732,7 +18731,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="473" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2203</v>
       </c>
@@ -18752,7 +18751,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2208</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2213</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2217</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2219</v>
       </c>
@@ -18844,7 +18843,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2223</v>
       </c>
@@ -18864,7 +18863,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2228</v>
       </c>
@@ -18893,7 +18892,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2232</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2236</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2241</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2246</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2251</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2253</v>
       </c>
@@ -19055,7 +19054,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2261</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2266</v>
       </c>
@@ -19089,7 +19088,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2269</v>
       </c>
@@ -19109,7 +19108,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2274</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2279</v>
       </c>
@@ -19179,7 +19178,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2288</v>
       </c>
@@ -19199,7 +19198,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2293</v>
       </c>
@@ -19219,7 +19218,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2298</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2300</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2305</v>
       </c>
@@ -19276,7 +19275,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2310</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="497" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2315</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="498" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2320</v>
       </c>
@@ -19336,7 +19335,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="499" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2325</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="500" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2330</v>
       </c>
@@ -19376,7 +19375,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="501" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2335</v>
       </c>
@@ -19414,7 +19413,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="502" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2341</v>
       </c>
@@ -19461,7 +19460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="503" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2349</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="504" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2354</v>
       </c>
@@ -19492,7 +19491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2355</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="506" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2360</v>
       </c>
@@ -19532,7 +19531,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="507" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2365</v>
       </c>
@@ -19552,7 +19551,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="508" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2370</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="509" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2375</v>
       </c>
@@ -19592,7 +19591,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="510" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2380</v>
       </c>
@@ -19612,7 +19611,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="511" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2385</v>
       </c>
@@ -19644,7 +19643,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="512" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2388</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="513" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2390</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="514" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2395</v>
       </c>
@@ -19695,7 +19694,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="515" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2400</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="516" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2405</v>
       </c>
@@ -19735,7 +19734,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="517" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2410</v>
       </c>
@@ -19755,7 +19754,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2414</v>
       </c>
@@ -19781,7 +19780,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2417</v>
       </c>
@@ -19795,7 +19794,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="520" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2420</v>
       </c>
@@ -19815,7 +19814,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="521" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2425</v>
       </c>
@@ -19853,7 +19852,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="522" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2429</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="523" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2433</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="524" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2438</v>
       </c>
@@ -19907,7 +19906,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="525" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2441</v>
       </c>
@@ -19927,7 +19926,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="526" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2446</v>
       </c>
@@ -19947,7 +19946,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="527" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2451</v>
       </c>
@@ -19967,7 +19966,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="528" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2456</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="529" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2457</v>
       </c>
@@ -20016,7 +20015,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="530" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2464</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="531" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2473</v>
       </c>
@@ -20089,7 +20088,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="532" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2478</v>
       </c>
@@ -20118,7 +20117,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="533" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2481</v>
       </c>
@@ -20132,7 +20131,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="534" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2483</v>
       </c>
@@ -20152,7 +20151,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="535" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2488</v>
       </c>
@@ -20163,7 +20162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="536" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2489</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="537" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2491</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="538" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2495</v>
       </c>
@@ -20220,7 +20219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="539" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2496</v>
       </c>
@@ -20240,7 +20239,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="540" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2501</v>
       </c>
@@ -20260,7 +20259,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="541" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2506</v>
       </c>
@@ -20280,7 +20279,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="542" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2511</v>
       </c>
@@ -20300,7 +20299,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="543" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2516</v>
       </c>
@@ -20314,7 +20313,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="544" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2519</v>
       </c>
@@ -20334,7 +20333,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="545" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2524</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="546" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2529</v>
       </c>
@@ -20374,7 +20373,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="547" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2533</v>
       </c>
@@ -20388,7 +20387,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="548" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2536</v>
       </c>
@@ -20408,7 +20407,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="549" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2541</v>
       </c>
@@ -20458,7 +20457,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="550" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2548</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="551" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2553</v>
       </c>
@@ -20498,7 +20497,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="552" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2558</v>
       </c>
@@ -20519,24 +20518,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH552">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Cyanobacteria"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH552" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AH21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21494,15 +21487,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21642,5 +21636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analyses/uwpr-dec2018/unipept-lca/378-peaks80-dno-nomods-lca.xlsx
+++ b/analyses/uwpr-dec2018/unipept-lca/378-peaks80-dno-nomods-lca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-dec2018/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD3DCC-398E-1649-AA03-9176C6E43DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3A49FA-3E5F-624D-8FE4-A41C4570AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20529,7 +20529,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
